--- a/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid-2.xlsx
+++ b/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
   <si>
     <t>status</t>
   </si>
@@ -187,6 +187,9 @@
     <t>D</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -257,6 +260,24 @@
   </si>
   <si>
     <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-19_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.0-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.0-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-20_002.xlsx</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,37 +819,37 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -843,10 +864,10 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2">
         <v>336.7439817686464</v>
@@ -858,7 +879,7 @@
         <v>1461.1958986</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2">
         <v>336.7439817686464</v>
@@ -956,37 +977,37 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -1001,10 +1022,10 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3">
         <v>328.6815313132017</v>
@@ -1016,7 +1037,7 @@
         <v>1475.0523963</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3">
         <v>328.6815313132017</v>
@@ -1114,37 +1135,37 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>10</v>
@@ -1159,10 +1180,10 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4">
         <v>320.9978342859015</v>
@@ -1174,7 +1195,7 @@
         <v>1471.8436184</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4">
         <v>320.9978342859015</v>
@@ -1272,37 +1293,37 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -1317,10 +1338,10 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5">
         <v>406.8163820868121</v>
@@ -1332,7 +1353,7 @@
         <v>277.5945622</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5">
         <v>406.8163820868121</v>
@@ -1430,37 +1451,37 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -1475,10 +1496,10 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6">
         <v>331.94261640317</v>
@@ -1490,7 +1511,7 @@
         <v>1464.1192858</v>
       </c>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z6">
         <v>331.94261640317</v>
@@ -1588,37 +1609,37 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -1633,10 +1654,10 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7">
         <v>336.7544501425645</v>
@@ -1648,7 +1669,7 @@
         <v>1512.4743165</v>
       </c>
       <c r="Y7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7">
         <v>336.7544501425645</v>
@@ -1746,37 +1767,37 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1791,10 +1812,10 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8">
         <v>321.0143263708171</v>
@@ -1806,7 +1827,7 @@
         <v>1517.4987368</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8">
         <v>321.0143263708171</v>
@@ -1904,37 +1925,37 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1949,10 +1970,10 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9">
         <v>406.8163820868121</v>
@@ -1964,7 +1985,7 @@
         <v>267.8119619</v>
       </c>
       <c r="Y9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z9">
         <v>406.8163820868121</v>
@@ -2052,6 +2073,666 @@
       </c>
       <c r="BD9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>438</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10">
+        <v>229.984750736341</v>
+      </c>
+      <c r="W10">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X10">
+        <v>1552.7782654</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10">
+        <v>229.984750736341</v>
+      </c>
+      <c r="AA10">
+        <v>211.984750736341</v>
+      </c>
+      <c r="AB10">
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <v>18</v>
+      </c>
+      <c r="AD10">
+        <v>438</v>
+      </c>
+      <c r="AE10">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.08974228959951765</v>
+      </c>
+      <c r="AI10">
+        <v>0.08974228959951765</v>
+      </c>
+      <c r="AJ10">
+        <v>0.08271851429433144</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>211.984750736341</v>
+      </c>
+      <c r="AO10">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP10">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ10">
+        <v>700.3876933630594</v>
+      </c>
+      <c r="AR10">
+        <v>2562.72434949751</v>
+      </c>
+      <c r="AS10">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT10">
+        <v>1619.274621805786</v>
+      </c>
+      <c r="AU10">
+        <v>28.6319083251363</v>
+      </c>
+      <c r="AV10">
+        <v>216.1328457648586</v>
+      </c>
+      <c r="AW10">
+        <v>4.148095028517607</v>
+      </c>
+      <c r="AX10">
+        <v>177.343393194253</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>-14.6629732887026</v>
+      </c>
+      <c r="BB10">
+        <v>9.90196787897365</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>438</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>1.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" t="s">
+        <v>71</v>
+      </c>
+      <c r="V11">
+        <v>229.1373415118127</v>
+      </c>
+      <c r="W11">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X11">
+        <v>1549.1732963</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11">
+        <v>229.1373415118127</v>
+      </c>
+      <c r="AA11">
+        <v>211.1373415118127</v>
+      </c>
+      <c r="AB11">
+        <v>18</v>
+      </c>
+      <c r="AC11">
+        <v>18</v>
+      </c>
+      <c r="AD11">
+        <v>438</v>
+      </c>
+      <c r="AE11">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.0894109375782747</v>
+      </c>
+      <c r="AI11">
+        <v>0.0894109375782747</v>
+      </c>
+      <c r="AJ11">
+        <v>0.08238721605916134</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>211.1373415118127</v>
+      </c>
+      <c r="AO11">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP11">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ11">
+        <v>700.407318127252</v>
+      </c>
+      <c r="AR11">
+        <v>2562.743974261703</v>
+      </c>
+      <c r="AS11">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT11">
+        <v>1610.376175042072</v>
+      </c>
+      <c r="AU11">
+        <v>19.79339306334658</v>
+      </c>
+      <c r="AV11">
+        <v>214.2596199088237</v>
+      </c>
+      <c r="AW11">
+        <v>3.122278397010955</v>
+      </c>
+      <c r="AX11">
+        <v>168.8874000000001</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <v>438</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12">
+        <v>292.8494484169519</v>
+      </c>
+      <c r="W12">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X12">
+        <v>284.0033805</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z12">
+        <v>292.8494484169519</v>
+      </c>
+      <c r="AA12">
+        <v>274.8494484169519</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>18</v>
+      </c>
+      <c r="AD12">
+        <v>438</v>
+      </c>
+      <c r="AE12">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.1142672433330948</v>
+      </c>
+      <c r="AI12">
+        <v>0.1142672433330948</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1072438038452824</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>274.8494484169519</v>
+      </c>
+      <c r="AO12">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP12">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ12">
+        <v>700.5102269681809</v>
+      </c>
+      <c r="AR12">
+        <v>2562.846883102631</v>
+      </c>
+      <c r="AS12">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT12">
+        <v>1573.517781815612</v>
+      </c>
+      <c r="AU12">
+        <v>5.64318078790447</v>
+      </c>
+      <c r="AV12">
+        <v>275.34758842949</v>
+      </c>
+      <c r="AW12">
+        <v>0.4981400125380876</v>
+      </c>
+      <c r="AX12">
+        <v>189.9448894497671</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>438</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>1.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>438</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>1.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6</v>
+      </c>
+      <c r="R14" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <v>438</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>1.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
